--- a/modelos/OBACOR4451092/OBACOR4451092_Sell Out_metricas.xlsx
+++ b/modelos/OBACOR4451092/OBACOR4451092_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,101 +473,141 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45034</v>
+        <v>45022</v>
       </c>
       <c r="B2" t="n">
-        <v>50.92529702146136</v>
+        <v>86.83161156701387</v>
       </c>
       <c r="C2" t="n">
-        <v>20.91614753312566</v>
+        <v>57.74787459426669</v>
       </c>
       <c r="D2" t="n">
-        <v>84.50011613017624</v>
+        <v>116.8410409718459</v>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45040</v>
+        <v>45026</v>
       </c>
       <c r="B3" t="n">
-        <v>61.29641994187075</v>
+        <v>69.09308772188807</v>
       </c>
       <c r="C3" t="n">
-        <v>33.53060585518631</v>
+        <v>38.03979588688148</v>
       </c>
       <c r="D3" t="n">
-        <v>90.99936946655693</v>
+        <v>99.30899841111697</v>
       </c>
       <c r="E3" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45034</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45048</v>
+        <v>45034</v>
       </c>
       <c r="B4" t="n">
-        <v>50.51131305868918</v>
+        <v>53.47873615746775</v>
       </c>
       <c r="C4" t="n">
-        <v>21.05544476090102</v>
+        <v>24.70561904642117</v>
       </c>
       <c r="D4" t="n">
-        <v>82.08581091216861</v>
+        <v>84.75022775694627</v>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45041</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45059</v>
+        <v>45040</v>
       </c>
       <c r="B5" t="n">
-        <v>42.8607567835727</v>
+        <v>64.38285990491406</v>
       </c>
       <c r="C5" t="n">
-        <v>12.17968816637505</v>
+        <v>34.18158380884611</v>
       </c>
       <c r="D5" t="n">
-        <v>75.36142725060287</v>
+        <v>92.45761830504783</v>
       </c>
       <c r="E5" t="n">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45055</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>45048</v>
+      </c>
+      <c r="B6" t="n">
+        <v>52.20414894323258</v>
+      </c>
+      <c r="C6" t="n">
+        <v>22.95586779321124</v>
+      </c>
+      <c r="D6" t="n">
+        <v>83.62429560814037</v>
+      </c>
+      <c r="E6" t="n">
+        <v>103</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45059</v>
+      </c>
+      <c r="B7" t="n">
+        <v>52.89849756071418</v>
+      </c>
+      <c r="C7" t="n">
+        <v>22.74083908917478</v>
+      </c>
+      <c r="D7" t="n">
+        <v>83.16453695078056</v>
+      </c>
+      <c r="E7" t="n">
+        <v>108</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B6" t="n">
-        <v>61.29315229200009</v>
-      </c>
-      <c r="C6" t="n">
-        <v>28.75401733400926</v>
-      </c>
-      <c r="D6" t="n">
-        <v>92.2593522329274</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="B8" t="n">
+        <v>62.79177740915226</v>
+      </c>
+      <c r="C8" t="n">
+        <v>29.28890926504588</v>
+      </c>
+      <c r="D8" t="n">
+        <v>94.3091407290873</v>
+      </c>
+      <c r="E8" t="n">
         <v>36</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F8" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -582,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,51 +674,51 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>4243.12100680887</v>
+        <v>250.6399248088072</v>
       </c>
       <c r="C2" t="n">
-        <v>65.1392432164273</v>
+        <v>15.83161156701387</v>
       </c>
       <c r="D2" t="n">
-        <v>65.1392432164273</v>
+        <v>15.83161156701387</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6031411408928454</v>
+        <v>0.2229804446058291</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6031411408928454</v>
+        <v>0.2229804446058291</v>
       </c>
       <c r="G2" t="n">
-        <v>0.863567764145279</v>
+        <v>0.200613950650715</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1466.615780364116</v>
+        <v>3036.175571066622</v>
       </c>
       <c r="C3" t="n">
-        <v>38.29641994187075</v>
+        <v>55.10150243928582</v>
       </c>
       <c r="D3" t="n">
-        <v>38.29641994187075</v>
+        <v>55.10150243928582</v>
       </c>
       <c r="E3" t="n">
-        <v>1.665061736603076</v>
+        <v>0.5101990966600539</v>
       </c>
       <c r="F3" t="n">
-        <v>1.665061736603076</v>
+        <v>0.5101990966600539</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9086132001401543</v>
+        <v>0.6849225228904772</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -686,27 +726,53 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1078.729721776504</v>
+      </c>
+      <c r="C4" t="n">
+        <v>32.84402109633509</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.23797381340106</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.119347053006929</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.119347053006929</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6537204521928348</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
-        <v>1159.052014612647</v>
-      </c>
-      <c r="C4" t="n">
-        <v>34.04485298268516</v>
-      </c>
-      <c r="D4" t="n">
-        <v>28.95218073728318</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.4544771718839344</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.5095989023428235</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.4557988369888529</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="B5" t="n">
+        <v>1113.51490114226</v>
+      </c>
+      <c r="C5" t="n">
+        <v>33.36937070341992</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.03629743615064</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4486891241149589</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4931636024928875</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4372968979914059</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.6666666666666667</v>
       </c>
     </row>

--- a/modelos/OBACOR4451092/OBACOR4451092_Sell Out_metricas.xlsx
+++ b/modelos/OBACOR4451092/OBACOR4451092_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,141 +473,101 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45022</v>
+        <v>45034</v>
       </c>
       <c r="B2" t="n">
-        <v>86.83161156701387</v>
+        <v>48.44437610461279</v>
       </c>
       <c r="C2" t="n">
-        <v>57.74787459426669</v>
+        <v>16.64279541989454</v>
       </c>
       <c r="D2" t="n">
-        <v>116.8410409718459</v>
+        <v>78.79680337114831</v>
       </c>
       <c r="E2" t="n">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45020</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45026</v>
+        <v>45040</v>
       </c>
       <c r="B3" t="n">
-        <v>69.09308772188807</v>
+        <v>65.46406280755377</v>
       </c>
       <c r="C3" t="n">
-        <v>38.03979588688148</v>
+        <v>36.14737738542292</v>
       </c>
       <c r="D3" t="n">
-        <v>99.30899841111697</v>
+        <v>96.5624698571817</v>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45020</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45034</v>
+        <v>45048</v>
       </c>
       <c r="B4" t="n">
-        <v>53.47873615746775</v>
+        <v>48.23534455806594</v>
       </c>
       <c r="C4" t="n">
-        <v>24.70561904642117</v>
+        <v>17.47218057844624</v>
       </c>
       <c r="D4" t="n">
-        <v>84.75022775694627</v>
+        <v>77.48148616927226</v>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45027</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45040</v>
+        <v>45059</v>
       </c>
       <c r="B5" t="n">
-        <v>64.38285990491406</v>
+        <v>54.76539459255739</v>
       </c>
       <c r="C5" t="n">
-        <v>34.18158380884611</v>
+        <v>23.31886333971392</v>
       </c>
       <c r="D5" t="n">
-        <v>92.45761830504783</v>
+        <v>87.44690827561395</v>
       </c>
       <c r="E5" t="n">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45034</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45048</v>
+        <v>45062</v>
       </c>
       <c r="B6" t="n">
-        <v>52.20414894323258</v>
+        <v>59.19067804294691</v>
       </c>
       <c r="C6" t="n">
-        <v>22.95586779321124</v>
+        <v>29.09797395500289</v>
       </c>
       <c r="D6" t="n">
-        <v>83.62429560814037</v>
+        <v>91.80729961036077</v>
       </c>
       <c r="E6" t="n">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45041</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45059</v>
-      </c>
-      <c r="B7" t="n">
-        <v>52.89849756071418</v>
-      </c>
-      <c r="C7" t="n">
-        <v>22.74083908917478</v>
-      </c>
-      <c r="D7" t="n">
-        <v>83.16453695078056</v>
-      </c>
-      <c r="E7" t="n">
-        <v>108</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>45055</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B8" t="n">
-        <v>62.79177740915226</v>
-      </c>
-      <c r="C8" t="n">
-        <v>29.28890926504588</v>
-      </c>
-      <c r="D8" t="n">
-        <v>94.3091407290873</v>
-      </c>
-      <c r="E8" t="n">
-        <v>36</v>
-      </c>
-      <c r="F8" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -622,7 +582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -674,51 +634,51 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>250.6399248088072</v>
+        <v>2833.923212886119</v>
       </c>
       <c r="C2" t="n">
-        <v>15.83161156701387</v>
+        <v>53.23460540744261</v>
       </c>
       <c r="D2" t="n">
-        <v>15.83161156701387</v>
+        <v>53.23460540744261</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2229804446058291</v>
+        <v>0.4929130130318761</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2229804446058291</v>
+        <v>0.4929130130318761</v>
       </c>
       <c r="G2" t="n">
-        <v>0.200613950650715</v>
+        <v>0.6541268251854417</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>3036.175571066622</v>
+        <v>1803.196630123872</v>
       </c>
       <c r="C3" t="n">
-        <v>55.10150243928582</v>
+        <v>42.46406280755377</v>
       </c>
       <c r="D3" t="n">
-        <v>55.10150243928582</v>
+        <v>42.46406280755377</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5101990966600539</v>
+        <v>1.846263600328425</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5101990966600539</v>
+        <v>1.846263600328425</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6849225228904772</v>
+        <v>0.9600296766819497</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -726,53 +686,27 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1078.729721776504</v>
+        <v>1223.502492459007</v>
       </c>
       <c r="C4" t="n">
-        <v>32.84402109633509</v>
+        <v>34.97860049314448</v>
       </c>
       <c r="D4" t="n">
-        <v>31.23797381340106</v>
+        <v>29.83698579342273</v>
       </c>
       <c r="E4" t="n">
-        <v>1.119347053006929</v>
+        <v>0.4561583055616764</v>
       </c>
       <c r="F4" t="n">
-        <v>1.119347053006929</v>
+        <v>0.5316956839022724</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6537204521928348</v>
+        <v>0.4748646287359742</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1113.51490114226</v>
-      </c>
-      <c r="C5" t="n">
-        <v>33.36937070341992</v>
-      </c>
-      <c r="D5" t="n">
-        <v>28.03629743615064</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.4486891241149589</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.4931636024928875</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.4372968979914059</v>
-      </c>
-      <c r="H5" t="n">
         <v>0.6666666666666667</v>
       </c>
     </row>

--- a/modelos/OBACOR4451092/OBACOR4451092_Sell Out_metricas.xlsx
+++ b/modelos/OBACOR4451092/OBACOR4451092_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45034</v>
       </c>
       <c r="B2" t="n">
-        <v>48.44437610461279</v>
+        <v>50.83287229514048</v>
       </c>
       <c r="C2" t="n">
-        <v>16.64279541989454</v>
+        <v>15.16170129029961</v>
       </c>
       <c r="D2" t="n">
-        <v>78.79680337114831</v>
+        <v>83.06724903179224</v>
       </c>
       <c r="E2" t="n">
         <v>60</v>
@@ -496,13 +496,13 @@
         <v>45040</v>
       </c>
       <c r="B3" t="n">
-        <v>65.46406280755377</v>
+        <v>62.47150940255167</v>
       </c>
       <c r="C3" t="n">
-        <v>36.14737738542292</v>
+        <v>33.79427581616998</v>
       </c>
       <c r="D3" t="n">
-        <v>96.5624698571817</v>
+        <v>96.44647105409757</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
@@ -516,13 +516,13 @@
         <v>45048</v>
       </c>
       <c r="B4" t="n">
-        <v>48.23534455806594</v>
+        <v>50.30037201776619</v>
       </c>
       <c r="C4" t="n">
-        <v>17.47218057844624</v>
+        <v>22.29190458998282</v>
       </c>
       <c r="D4" t="n">
-        <v>77.48148616927226</v>
+        <v>84.10892320277505</v>
       </c>
       <c r="E4" t="n">
         <v>103</v>
@@ -536,13 +536,13 @@
         <v>45059</v>
       </c>
       <c r="B5" t="n">
-        <v>54.76539459255739</v>
+        <v>50.89052102394851</v>
       </c>
       <c r="C5" t="n">
-        <v>23.31886333971392</v>
+        <v>17.58398445866512</v>
       </c>
       <c r="D5" t="n">
-        <v>87.44690827561395</v>
+        <v>84.797448441558</v>
       </c>
       <c r="E5" t="n">
         <v>108</v>
@@ -556,13 +556,13 @@
         <v>45062</v>
       </c>
       <c r="B6" t="n">
-        <v>59.19067804294691</v>
+        <v>61.09159733926827</v>
       </c>
       <c r="C6" t="n">
-        <v>29.09797395500289</v>
+        <v>26.13344175047958</v>
       </c>
       <c r="D6" t="n">
-        <v>91.80729961036077</v>
+        <v>94.30821626743555</v>
       </c>
       <c r="E6" t="n">
         <v>36</v>
@@ -637,22 +637,22 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>2833.923212886119</v>
+        <v>3261.492588916067</v>
       </c>
       <c r="C2" t="n">
-        <v>53.23460540744261</v>
+        <v>57.10947897605149</v>
       </c>
       <c r="D2" t="n">
-        <v>53.23460540744261</v>
+        <v>57.10947897605149</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4929130130318761</v>
+        <v>0.5287914720004768</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4929130130318761</v>
+        <v>0.5287914720004768</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6541268251854417</v>
+        <v>0.7188531903352972</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -663,22 +663,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1803.196630123872</v>
+        <v>1558.000054515725</v>
       </c>
       <c r="C3" t="n">
-        <v>42.46406280755377</v>
+        <v>39.47150940255167</v>
       </c>
       <c r="D3" t="n">
-        <v>42.46406280755377</v>
+        <v>39.47150940255167</v>
       </c>
       <c r="E3" t="n">
-        <v>1.846263600328425</v>
+        <v>1.716152582719638</v>
       </c>
       <c r="F3" t="n">
-        <v>1.846263600328425</v>
+        <v>1.716152582719638</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9600296766819497</v>
+        <v>0.9236179325358511</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -689,22 +689,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1223.502492459007</v>
+        <v>1163.625092286339</v>
       </c>
       <c r="C4" t="n">
-        <v>34.97860049314448</v>
+        <v>34.1119494061295</v>
       </c>
       <c r="D4" t="n">
-        <v>29.83698579342273</v>
+        <v>28.98611767545387</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4561583055616764</v>
+        <v>0.4538070501137511</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5316956839022724</v>
+        <v>0.5116468736139205</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4748646287359742</v>
+        <v>0.4566070784451228</v>
       </c>
       <c r="H4" t="n">
         <v>0.6666666666666667</v>
